--- a/Chronologie2022.xlsx
+++ b/Chronologie2022.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="60">
   <si>
     <t>Chronologie des chants d'anoures 2022</t>
   </si>
@@ -155,9 +155,6 @@
     <t>Capitale-Nationale</t>
   </si>
   <si>
-    <t>C/D</t>
-  </si>
-  <si>
     <t>Réserve nationale de faune du Cap-Tourmente</t>
   </si>
   <si>
@@ -174,13 +171,46 @@
   </si>
   <si>
     <t>pascaleallard</t>
+  </si>
+  <si>
+    <t>Fin de saison</t>
+  </si>
+  <si>
+    <t>BUAM</t>
+  </si>
+  <si>
+    <t>Les Cèdres</t>
+  </si>
+  <si>
+    <t>Chant hâtif (16°C)</t>
+  </si>
+  <si>
+    <t>Katherine Collin</t>
+  </si>
+  <si>
+    <t>Argenteuil</t>
+  </si>
+  <si>
+    <t>Laurentides</t>
+  </si>
+  <si>
+    <t>Susan Hawker</t>
+  </si>
+  <si>
+    <t>Sotel-Tracy</t>
+  </si>
+  <si>
+    <t>Jonathan Daunais</t>
+  </si>
+  <si>
+    <t>B/C/D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,16 +231,55 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -247,30 +316,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -283,33 +328,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -328,57 +351,47 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -659,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,10 +692,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="15"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -735,65 +748,65 @@
       <c r="A4" s="6">
         <v>44651</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="19" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="25" t="s">
-        <v>48</v>
+      <c r="I4" s="11" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5" s="6">
         <v>44651</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="14" t="s">
+      <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="25" t="s">
-        <v>48</v>
+      <c r="I5" s="11" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>44656</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -805,16 +818,16 @@
       <c r="E6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="22" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="9" t="s">
         <v>22</v>
       </c>
     </row>
@@ -822,7 +835,7 @@
       <c r="A7" s="6">
         <v>44655</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -831,19 +844,19 @@
       <c r="D7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="22" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="9" t="s">
         <v>26</v>
       </c>
     </row>
@@ -851,7 +864,7 @@
       <c r="A8" s="6">
         <v>44655</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="19" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -863,194 +876,335 @@
       <c r="E8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="22" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+      <c r="A9" s="12">
         <v>44662</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="16" t="s">
+      <c r="C9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="18">
+      <c r="A10" s="12">
         <v>44664</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="10" t="s">
+      <c r="C10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17" t="s">
+      <c r="H10" s="11"/>
+      <c r="I10" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="18">
+      <c r="A11" s="12">
         <v>44668</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="C11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="17" t="s">
-        <v>49</v>
+      <c r="I11" s="11" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
+      <c r="A12" s="12">
         <v>44668</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="10" t="s">
+      <c r="C12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="17" t="s">
-        <v>49</v>
+      <c r="I12" s="11" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="19">
+      <c r="A13" s="12">
         <v>44673</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="I13" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>44673</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
+      <c r="H14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
         <v>44673</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B15" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="10" t="s">
+      <c r="C15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>44676</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>44681</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>44681</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="H18" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H15" s="28"/>
-      <c r="I15" s="27"/>
+      <c r="I18" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>44681</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Chronologie2022.xlsx
+++ b/Chronologie2022.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="67">
   <si>
     <t>Chronologie des chants d'anoures 2022</t>
   </si>
@@ -204,13 +204,47 @@
   </si>
   <si>
     <t>B/C/D</t>
+  </si>
+  <si>
+    <t>Notre-Dame-des-Bois</t>
+  </si>
+  <si>
+    <t>Estrie</t>
+  </si>
+  <si>
+    <t>Parc national du Mont-Mégantic</t>
+  </si>
+  <si>
+    <t>Hélène Philibert</t>
+  </si>
+  <si>
+    <t>Scotstown</t>
+  </si>
+  <si>
+    <t>Cote 0</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Parc national du Mont-Mégantic - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fin de saison</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,6 +282,14 @@
     <font>
       <sz val="11"/>
       <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -332,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -368,9 +410,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -392,6 +431,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -672,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,10 +736,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="24"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -748,7 +792,7 @@
       <c r="A4" s="6">
         <v>44651</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -760,7 +804,7 @@
       <c r="E4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="21" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="8" t="s">
@@ -777,7 +821,7 @@
       <c r="A5" s="6">
         <v>44651</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -789,7 +833,7 @@
       <c r="E5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="21" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="7" t="s">
@@ -806,7 +850,7 @@
       <c r="A6" s="6">
         <v>44656</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -818,7 +862,7 @@
       <c r="E6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="21" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="7" t="s">
@@ -835,7 +879,7 @@
       <c r="A7" s="6">
         <v>44655</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -847,7 +891,7 @@
       <c r="E7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="21" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="7" t="s">
@@ -864,7 +908,7 @@
       <c r="A8" s="6">
         <v>44655</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -876,7 +920,7 @@
       <c r="E8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="21" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="7" t="s">
@@ -905,7 +949,7 @@
       <c r="E9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="22" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="8" t="s">
@@ -922,7 +966,7 @@
       <c r="A10" s="12">
         <v>44664</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -934,7 +978,7 @@
       <c r="E10" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="22" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="8" t="s">
@@ -949,7 +993,7 @@
       <c r="A11" s="12">
         <v>44668</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -961,7 +1005,7 @@
       <c r="E11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="23" t="s">
         <v>39</v>
       </c>
       <c r="G11" s="8" t="s">
@@ -978,7 +1022,7 @@
       <c r="A12" s="12">
         <v>44668</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -990,7 +1034,7 @@
       <c r="E12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="23" t="s">
         <v>39</v>
       </c>
       <c r="G12" s="8" t="s">
@@ -1007,7 +1051,7 @@
       <c r="A13" s="12">
         <v>44673</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -1019,7 +1063,7 @@
       <c r="E13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="23" t="s">
         <v>59</v>
       </c>
       <c r="G13" s="8" t="s">
@@ -1036,7 +1080,7 @@
       <c r="A14" s="12">
         <v>44673</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -1048,7 +1092,7 @@
       <c r="E14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="23" t="s">
         <v>39</v>
       </c>
       <c r="G14" s="8" t="s">
@@ -1057,7 +1101,7 @@
       <c r="H14" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="16" t="s">
+      <c r="I14" s="15" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1065,7 +1109,7 @@
       <c r="A15" s="10">
         <v>44673</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -1077,13 +1121,13 @@
       <c r="E15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="21" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="26" t="s">
         <v>49</v>
       </c>
       <c r="I15" s="9" t="s">
@@ -1094,7 +1138,7 @@
       <c r="A16" s="12">
         <v>44676</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="20" t="s">
         <v>50</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -1106,13 +1150,13 @@
       <c r="E16" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="22" t="s">
         <v>14</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="17" t="s">
+      <c r="H16" s="16" t="s">
         <v>52</v>
       </c>
       <c r="I16" s="9" t="s">
@@ -1123,7 +1167,7 @@
       <c r="A17" s="12">
         <v>44681</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="20" t="s">
         <v>50</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -1135,7 +1179,7 @@
       <c r="E17" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="22" t="s">
         <v>14</v>
       </c>
       <c r="G17" s="8" t="s">
@@ -1152,7 +1196,7 @@
       <c r="A18" s="12">
         <v>44681</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="8" t="s">
@@ -1164,13 +1208,13 @@
       <c r="E18" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="24" t="s">
+      <c r="F18" s="23" t="s">
         <v>39</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="18" t="s">
+      <c r="H18" s="17" t="s">
         <v>25</v>
       </c>
       <c r="I18" s="11" t="s">
@@ -1181,7 +1225,7 @@
       <c r="A19" s="12">
         <v>44681</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -1193,17 +1237,104 @@
       <c r="E19" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="22" t="s">
         <v>14</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="18" t="s">
+      <c r="H19" s="17" t="s">
         <v>25</v>
       </c>
       <c r="I19" s="11" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>44685</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="8">
+        <v>171</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>44685</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="8">
+        <v>171</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="25" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
+        <v>44685</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="8">
+        <v>171</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Chronologie2022.xlsx
+++ b/Chronologie2022.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="83">
   <si>
     <t>Chronologie des chants d'anoures 2022</t>
   </si>
@@ -239,12 +239,60 @@
       <t>Fin de saison</t>
     </r>
   </si>
+  <si>
+    <t>Témiscouata</t>
+  </si>
+  <si>
+    <t>Bas-Saint-Laurent</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Parc national du Lac Témiscouata</t>
+  </si>
+  <si>
+    <t>Rosalie Morin-Nadeau</t>
+  </si>
+  <si>
+    <t>La Merisière</t>
+  </si>
+  <si>
+    <t>Chaudiere-Appalaches</t>
+  </si>
+  <si>
+    <t>B/C</t>
+  </si>
+  <si>
+    <t>Maude Roussin</t>
+  </si>
+  <si>
+    <t>Chant hâtif</t>
+  </si>
+  <si>
+    <t>Fin avril/début mai 2022</t>
+  </si>
+  <si>
+    <t>Saint-Félicien</t>
+  </si>
+  <si>
+    <t>Saguenay-Lac-Saint-Jean</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Cote 1-3</t>
+  </si>
+  <si>
+    <t>Alexandra Coutu</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,21 +315,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="5"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -295,7 +329,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -317,6 +351,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF66"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -411,7 +469,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -422,26 +480,34 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF66FF66"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -716,10 +782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,7 +794,7 @@
     <col min="2" max="2" width="9.85546875" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="47.140625" bestFit="1" customWidth="1"/>
@@ -736,10 +802,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -804,7 +870,7 @@
       <c r="E4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="23" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="8" t="s">
@@ -833,7 +899,7 @@
       <c r="E5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="23" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="7" t="s">
@@ -862,7 +928,7 @@
       <c r="E6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="23" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="7" t="s">
@@ -891,7 +957,7 @@
       <c r="E7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="23" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="7" t="s">
@@ -920,7 +986,7 @@
       <c r="E8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="23" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="7" t="s">
@@ -949,7 +1015,7 @@
       <c r="E9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="23" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="8" t="s">
@@ -978,7 +1044,7 @@
       <c r="E10" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="23" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="8" t="s">
@@ -1005,7 +1071,7 @@
       <c r="E11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="24" t="s">
         <v>39</v>
       </c>
       <c r="G11" s="8" t="s">
@@ -1034,7 +1100,7 @@
       <c r="E12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="24" t="s">
         <v>39</v>
       </c>
       <c r="G12" s="8" t="s">
@@ -1063,7 +1129,7 @@
       <c r="E13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="24" t="s">
         <v>59</v>
       </c>
       <c r="G13" s="8" t="s">
@@ -1092,7 +1158,7 @@
       <c r="E14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="24" t="s">
         <v>39</v>
       </c>
       <c r="G14" s="8" t="s">
@@ -1121,13 +1187,13 @@
       <c r="E15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="23" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="26" t="s">
+      <c r="H15" s="22" t="s">
         <v>49</v>
       </c>
       <c r="I15" s="9" t="s">
@@ -1150,7 +1216,7 @@
       <c r="E16" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="23" t="s">
         <v>14</v>
       </c>
       <c r="G16" s="8" t="s">
@@ -1179,7 +1245,7 @@
       <c r="E17" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="23" t="s">
         <v>14</v>
       </c>
       <c r="G17" s="8" t="s">
@@ -1208,7 +1274,7 @@
       <c r="E18" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="F18" s="24" t="s">
         <v>39</v>
       </c>
       <c r="G18" s="8" t="s">
@@ -1237,7 +1303,7 @@
       <c r="E19" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="23" t="s">
         <v>14</v>
       </c>
       <c r="G19" s="8" t="s">
@@ -1250,9 +1316,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
-        <v>44685</v>
+    <row r="20" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="B20" s="19" t="s">
         <v>17</v>
@@ -1266,7 +1332,7 @@
       <c r="E20" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="F20" s="24" t="s">
         <v>39</v>
       </c>
       <c r="G20" s="8" t="s">
@@ -1279,9 +1345,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
-        <v>44685</v>
+    <row r="21" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="B21" s="18" t="s">
         <v>10</v>
@@ -1295,7 +1361,7 @@
       <c r="E21" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="24" t="s">
         <v>39</v>
       </c>
       <c r="G21" s="8" t="s">
@@ -1308,9 +1374,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="25" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
-        <v>44685</v>
+    <row r="22" spans="1:9" s="21" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>10</v>
@@ -1324,7 +1390,7 @@
       <c r="E22" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="F22" s="24" t="s">
         <v>39</v>
       </c>
       <c r="G22" s="8" t="s">
@@ -1335,6 +1401,205 @@
       </c>
       <c r="I22" s="11" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="8">
+        <v>221</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="8">
+        <v>221</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="8">
+        <v>221</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
+        <v>44684</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="8">
+        <v>163</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
+        <v>44684</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="8">
+        <v>163</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
+        <v>44684</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="8">
+        <v>217</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
+        <v>44684</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="8">
+        <v>217</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/Chronologie2022.xlsx
+++ b/Chronologie2022.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="85">
   <si>
     <t>Chronologie des chants d'anoures 2022</t>
   </si>
@@ -286,6 +286,12 @@
   </si>
   <si>
     <t>Alexandra Coutu</t>
+  </si>
+  <si>
+    <t>Mont-Tremblant</t>
+  </si>
+  <si>
+    <t>Jacques Tremblay</t>
   </si>
 </sst>
 </file>
@@ -491,11 +497,11 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -782,10 +788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,10 +808,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1269,22 +1275,22 @@
         <v>11</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>39</v>
+        <v>13</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>14</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H18" s="17" t="s">
         <v>25</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1298,22 +1304,22 @@
         <v>11</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>14</v>
+        <v>55</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>39</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H19" s="17" t="s">
         <v>25</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -1552,25 +1558,23 @@
         <v>10</v>
       </c>
       <c r="C28" s="8">
-        <v>217</v>
+        <v>153</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F28" s="27" t="s">
-        <v>80</v>
+        <v>55</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>69</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>76</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H28" s="11"/>
       <c r="I28" s="11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -1581,24 +1585,80 @@
         <v>17</v>
       </c>
       <c r="C29" s="8">
+        <v>153</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
+        <v>44684</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="8">
         <v>217</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D30" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E30" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="F29" s="27" t="s">
+      <c r="F30" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="G30" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="H29" s="11" t="s">
+      <c r="H30" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="I29" s="11" t="s">
+      <c r="I30" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
+        <v>44684</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="8">
+        <v>217</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I31" s="11" t="s">
         <v>82</v>
       </c>
     </row>

--- a/Chronologie2022.xlsx
+++ b/Chronologie2022.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="88">
   <si>
     <t>Chronologie des chants d'anoures 2022</t>
   </si>
@@ -292,6 +292,15 @@
   </si>
   <si>
     <t>Jacques Tremblay</t>
+  </si>
+  <si>
+    <t>201m</t>
+  </si>
+  <si>
+    <t>Lac-Ministuk/Saguenay</t>
+  </si>
+  <si>
+    <t>Yoann Perrot</t>
   </si>
 </sst>
 </file>
@@ -788,10 +797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,7 +813,7 @@
     <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="47.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="87.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="55.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1611,26 +1620,24 @@
       <c r="B30" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="8">
-        <v>217</v>
+      <c r="C30" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="F30" s="26" t="s">
-        <v>80</v>
+      <c r="F30" s="25" t="s">
+        <v>69</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>76</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H30" s="11"/>
       <c r="I30" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -1640,25 +1647,81 @@
       <c r="B31" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="8">
-        <v>217</v>
+      <c r="C31" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="F31" s="26" t="s">
+      <c r="F31" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="12">
+        <v>44684</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="8">
+        <v>217</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F32" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="G32" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="H31" s="11" t="s">
+      <c r="H32" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="I31" s="11" t="s">
+      <c r="I32" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="12">
+        <v>44684</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="8">
+        <v>217</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F33" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I33" s="11" t="s">
         <v>82</v>
       </c>
     </row>

--- a/Chronologie2022.xlsx
+++ b/Chronologie2022.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="93">
   <si>
     <t>Chronologie des chants d'anoures 2022</t>
   </si>
@@ -301,6 +301,21 @@
   </si>
   <si>
     <t>Yoann Perrot</t>
+  </si>
+  <si>
+    <t>141m</t>
+  </si>
+  <si>
+    <t>Rimouski</t>
+  </si>
+  <si>
+    <t>Cote 0-1</t>
+  </si>
+  <si>
+    <t>Début de saison</t>
+  </si>
+  <si>
+    <t>Walter Bertacchi</t>
   </si>
 </sst>
 </file>
@@ -797,10 +812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1644,64 +1659,64 @@
       <c r="A31" s="12">
         <v>44684</v>
       </c>
-      <c r="B31" s="19" t="s">
-        <v>17</v>
+      <c r="B31" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="F31" s="25" t="s">
         <v>69</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H31" s="11"/>
+        <v>90</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>91</v>
+      </c>
       <c r="I31" s="11" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>44684</v>
       </c>
-      <c r="B32" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="8">
-        <v>217</v>
+      <c r="B32" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="F32" s="26" t="s">
-        <v>80</v>
+      <c r="F32" s="25" t="s">
+        <v>69</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>76</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H32" s="11"/>
       <c r="I32" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>44684</v>
       </c>
-      <c r="B33" s="19" t="s">
-        <v>17</v>
+      <c r="B33" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="C33" s="8">
         <v>217</v>
@@ -1722,6 +1737,35 @@
         <v>76</v>
       </c>
       <c r="I33" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="12">
+        <v>44684</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="8">
+        <v>217</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I34" s="11" t="s">
         <v>82</v>
       </c>
     </row>

--- a/Chronologie2022.xlsx
+++ b/Chronologie2022.xlsx
@@ -815,7 +815,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1636,23 +1636,25 @@
         <v>10</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="F30" s="25" t="s">
         <v>69</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H30" s="11"/>
+        <v>90</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>91</v>
+      </c>
       <c r="I30" s="11" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -1663,25 +1665,23 @@
         <v>10</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="F31" s="25" t="s">
         <v>69</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>91</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H31" s="11"/>
       <c r="I31" s="11" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">

--- a/Chronologie2022.xlsx
+++ b/Chronologie2022.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="99">
   <si>
     <t>Chronologie des chants d'anoures 2022</t>
   </si>
@@ -316,6 +316,24 @@
   </si>
   <si>
     <t>Walter Bertacchi</t>
+  </si>
+  <si>
+    <t>Mont-Laurier</t>
+  </si>
+  <si>
+    <t>Arianne Caron Daviault</t>
+  </si>
+  <si>
+    <t>Saint-Augustin-de-Desmaures</t>
+  </si>
+  <si>
+    <t>Natalie Hamel</t>
+  </si>
+  <si>
+    <t>Rivière-Rouge</t>
+  </si>
+  <si>
+    <t>Pascale Tinle</t>
   </si>
 </sst>
 </file>
@@ -812,10 +830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -944,7 +962,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>44656</v>
+        <v>44655</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>17</v>
@@ -953,30 +971,30 @@
         <v>11</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F6" s="23" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>44655</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>17</v>
+      <c r="B7" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>11</v>
@@ -997,36 +1015,36 @@
         <v>25</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>44655</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>10</v>
+        <v>44656</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>17</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F8" s="23" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1259,163 +1277,159 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
-        <v>44681</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>11</v>
+        <v>44677</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="8">
+        <v>174</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>14</v>
+        <v>42</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>39</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>25</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="H17" s="11"/>
       <c r="I17" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
-        <v>44681</v>
+        <v>44677</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>11</v>
+      <c r="C18" s="8">
+        <v>174</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>14</v>
+        <v>42</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>39</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>25</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H18" s="11"/>
       <c r="I18" s="11" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>44681</v>
       </c>
-      <c r="B19" s="19" t="s">
-        <v>17</v>
+      <c r="B19" s="20" t="s">
+        <v>50</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>39</v>
+        <v>19</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>14</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="17" t="s">
+      <c r="H19" s="9" t="s">
         <v>25</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>77</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>44681</v>
       </c>
       <c r="B20" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="8">
-        <v>171</v>
+      <c r="C20" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>39</v>
+        <v>13</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>14</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>62</v>
+        <v>31</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="8">
-        <v>171</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>44681</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>39</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>62</v>
+        <v>20</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="21" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="18" t="s">
-        <v>10</v>
+      <c r="B22" s="19" t="s">
+        <v>17</v>
       </c>
       <c r="C22" s="8">
         <v>171</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>61</v>
@@ -1424,10 +1438,10 @@
         <v>39</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I22" s="11" t="s">
         <v>63</v>
@@ -1441,58 +1455,62 @@
         <v>10</v>
       </c>
       <c r="C23" s="8">
-        <v>221</v>
+        <v>171</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H23" s="11"/>
+      <c r="H23" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="I23" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="21" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="19" t="s">
-        <v>17</v>
+      <c r="B24" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="C24" s="8">
-        <v>221</v>
+        <v>171</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H24" s="11"/>
+        <v>65</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>66</v>
+      </c>
       <c r="I24" s="11" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B25" s="20" t="s">
-        <v>50</v>
+      <c r="B25" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="C25" s="8">
         <v>221</v>
@@ -1507,85 +1525,81 @@
         <v>74</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>76</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="H25" s="11"/>
       <c r="I25" s="11" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12">
-        <v>44684</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>10</v>
+      <c r="A26" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>17</v>
       </c>
       <c r="C26" s="8">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F26" s="25" t="s">
-        <v>69</v>
+        <v>73</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>74</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H26" s="11" t="s">
-        <v>70</v>
-      </c>
+      <c r="H26" s="11"/>
       <c r="I26" s="11" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12">
-        <v>44684</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>17</v>
+      <c r="A27" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>50</v>
       </c>
       <c r="C27" s="8">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F27" s="25" t="s">
-        <v>69</v>
+        <v>73</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>74</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
-        <v>44684</v>
+        <v>44683</v>
       </c>
       <c r="B28" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="8">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>55</v>
@@ -1594,25 +1608,25 @@
         <v>69</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="H28" s="11"/>
       <c r="I28" s="11" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
-        <v>44684</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>17</v>
+        <v>44683</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="C29" s="8">
-        <v>153</v>
+        <v>215</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>55</v>
@@ -1621,40 +1635,38 @@
         <v>69</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H29" s="11"/>
       <c r="I29" s="11" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
-        <v>44684</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>88</v>
+        <v>44683</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="8">
+        <v>215</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="F30" s="25" t="s">
         <v>69</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>91</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="H30" s="11"/>
       <c r="I30" s="11" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -1664,24 +1676,26 @@
       <c r="B31" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>85</v>
+      <c r="C31" s="8">
+        <v>163</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="F31" s="25" t="s">
         <v>69</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H31" s="11"/>
+        <v>36</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>70</v>
+      </c>
       <c r="I31" s="11" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -1691,24 +1705,26 @@
       <c r="B32" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>85</v>
+      <c r="C32" s="8">
+        <v>163</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="F32" s="25" t="s">
         <v>69</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H32" s="11"/>
+        <v>36</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>70</v>
+      </c>
       <c r="I32" s="11" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -1719,25 +1735,23 @@
         <v>10</v>
       </c>
       <c r="C33" s="8">
-        <v>217</v>
+        <v>153</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F33" s="26" t="s">
-        <v>80</v>
+        <v>55</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>69</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>76</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H33" s="11"/>
       <c r="I33" s="11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -1748,24 +1762,163 @@
         <v>17</v>
       </c>
       <c r="C34" s="8">
+        <v>153</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12">
+        <v>44684</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12">
+        <v>44684</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="12">
+        <v>44684</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="12">
+        <v>44684</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="8">
         <v>217</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D38" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E38" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="F34" s="26" t="s">
+      <c r="F38" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="G38" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="H34" s="11" t="s">
+      <c r="H38" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="I34" s="11" t="s">
+      <c r="I38" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="12">
+        <v>44684</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="8">
+        <v>217</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F39" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I39" s="11" t="s">
         <v>82</v>
       </c>
     </row>

--- a/Chronologie2022.xlsx
+++ b/Chronologie2022.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="102">
   <si>
     <t>Chronologie des chants d'anoures 2022</t>
   </si>
@@ -334,6 +334,15 @@
   </si>
   <si>
     <t>Pascale Tinle</t>
+  </si>
+  <si>
+    <t>Sherbrooke</t>
+  </si>
+  <si>
+    <t>Min. Cote 1</t>
+  </si>
+  <si>
+    <t>Oreste Loica</t>
   </si>
 </sst>
 </file>
@@ -830,10 +839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1922,6 +1931,33 @@
         <v>82</v>
       </c>
     </row>
+    <row r="40" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="12">
+        <v>44685</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="8">
+        <v>121</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/Chronologie2022.xlsx
+++ b/Chronologie2022.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="105">
   <si>
     <t>Chronologie des chants d'anoures 2022</t>
   </si>
@@ -343,6 +343,15 @@
   </si>
   <si>
     <t>Oreste Loica</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>C/D</t>
+  </si>
+  <si>
+    <t>Eve Murray</t>
   </si>
 </sst>
 </file>
@@ -839,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1958,6 +1967,60 @@
         <v>101</v>
       </c>
     </row>
+    <row r="41" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="12">
+        <v>44686</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="12">
+        <v>44686</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F42" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/Chronologie2022.xlsx
+++ b/Chronologie2022.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="110">
   <si>
     <t>Chronologie des chants d'anoures 2022</t>
   </si>
@@ -352,6 +352,21 @@
   </si>
   <si>
     <t>Eve Murray</t>
+  </si>
+  <si>
+    <t>Saint-Ignace-de-Loyola</t>
+  </si>
+  <si>
+    <t>Montérégie/Lanaudière</t>
+  </si>
+  <si>
+    <t>Timothe Breton</t>
+  </si>
+  <si>
+    <t>La Conception</t>
+  </si>
+  <si>
+    <t>Caro Marcotte</t>
   </si>
 </sst>
 </file>
@@ -848,10 +863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2021,6 +2036,64 @@
         <v>104</v>
       </c>
     </row>
+    <row r="43" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="12">
+        <v>44691</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F43" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="12">
+        <v>44691</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F44" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/Chronologie2022.xlsx
+++ b/Chronologie2022.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="121">
   <si>
     <t>Chronologie des chants d'anoures 2022</t>
   </si>
@@ -367,6 +367,39 @@
   </si>
   <si>
     <t>Caro Marcotte</t>
+  </si>
+  <si>
+    <t>Chibougamau</t>
+  </si>
+  <si>
+    <t>Nord-du-Québec</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Emilie Dumas Bernard</t>
+  </si>
+  <si>
+    <t>Saint-Gabriel-de-Valcartier</t>
+  </si>
+  <si>
+    <t>Jean-Pierre Deschênes</t>
+  </si>
+  <si>
+    <t>Rouyn-Noranda</t>
+  </si>
+  <si>
+    <t>Abitibi-Témiscamingue</t>
+  </si>
+  <si>
+    <t>Sylvie Gagnon</t>
+  </si>
+  <si>
+    <t>Val-d'Or</t>
+  </si>
+  <si>
+    <t>François Dubois</t>
   </si>
 </sst>
 </file>
@@ -410,7 +443,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -456,6 +489,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF66FF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,7 +552,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -578,6 +617,12 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,6 +631,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FFFF"/>
       <color rgb="FF66FF66"/>
     </mruColors>
   </colors>
@@ -863,10 +909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2094,6 +2140,168 @@
         <v>109</v>
       </c>
     </row>
+    <row r="45" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="12">
+        <v>44691</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F45" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="G45" s="8"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="12">
+        <v>44692</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="8">
+        <v>46</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F46" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H46" s="9"/>
+      <c r="I46" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="12">
+        <v>44692</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="8">
+        <v>2</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F47" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="12">
+        <v>44692</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="8">
+        <v>2</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F48" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="12">
+        <v>44693</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F49" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="12">
+        <v>44695</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F50" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/Chronologie2022.xlsx
+++ b/Chronologie2022.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="123">
   <si>
     <t>Chronologie des chants d'anoures 2022</t>
   </si>
@@ -400,6 +400,12 @@
   </si>
   <si>
     <t>François Dubois</t>
+  </si>
+  <si>
+    <t>Stoneham-et-Tewkesbury</t>
+  </si>
+  <si>
+    <t>Pierre Aquin</t>
   </si>
 </sst>
 </file>
@@ -614,14 +620,14 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -909,10 +915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50:B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,10 +935,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="29"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -2150,13 +2156,13 @@
       <c r="C45" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="28" t="s">
+      <c r="D45" s="27" t="s">
         <v>110</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F45" s="29" t="s">
+      <c r="F45" s="28" t="s">
         <v>112</v>
       </c>
       <c r="G45" s="8"/>
@@ -2300,6 +2306,33 @@
       </c>
       <c r="I50" s="11" t="s">
         <v>120</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="12">
+        <v>44697</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" s="8">
+        <v>99</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F51" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
